--- a/data/job-descriptions.xlsx
+++ b/data/job-descriptions.xlsx
@@ -1,27 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26124"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tuan Le\Desktop\CV Builder\tuan_le_khac_cv_validus\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tuan Le\git\lktuan-resume\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79047A9C-671D-4763-9F3C-1509EB0D1E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4228951D-C1DD-4D1B-A7F1-ABEAC8AE3CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="job-descriptions" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="old" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'job-descriptions'!$A$1:$F$7</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="40">
   <si>
     <t>jobId</t>
   </si>
@@ -56,9 +72,6 @@
     <t>b</t>
   </si>
   <si>
-    <t>Finance analyst</t>
-  </si>
-  <si>
     <t>Techtronic Industries Vietnam Mfg. Co., Ltd</t>
   </si>
   <si>
@@ -71,46 +84,79 @@
     <t>c</t>
   </si>
   <si>
+    <t>Assurance Associate</t>
+  </si>
+  <si>
+    <t>Ernst &amp; Young Vietnam Ltd</t>
+  </si>
+  <si>
+    <t>Audit</t>
+  </si>
+  <si>
+    <t>Worked with clients in various industries, including private and public sectors;</t>
+  </si>
+  <si>
+    <t>Applied risk-based approach, evaluated control environment from the critical understanding of the business process, defined possibility of accounting material misstatements;</t>
+  </si>
+  <si>
+    <t>Conducted portfolio quality analysis, product risk management report, and other ad-hoc reports to support the manager in carrying out actionable recommendations regarding product policy, risk control,  campaign efficiency, and account management;</t>
+  </si>
+  <si>
+    <t>Handed in data curation, wrangling, and reporting to maintain daily/monthly deliverables (PQA, early warning, KRIs report);</t>
+  </si>
+  <si>
+    <t>Participated in company's digital transformations projects, monitored UAT for new applications, assisted others dept. on daily operations.</t>
+  </si>
+  <si>
+    <t>Responsible for partnering with Production, audited and ensured the accuracy of production data, and delivered efficiency reports for factories in Vietnam;</t>
+  </si>
+  <si>
+    <t>Performed audit procedures under Ernst &amp; Young's methodology to ensure the truth and fairness of various sections in the financial statements.</t>
+  </si>
+  <si>
+    <t>Performed cost control in  the belt-tightening period due to the Covid pandemic, co-operated effectively with other functional departments for daily operation process.</t>
+  </si>
+  <si>
+    <t>Financial analyst</t>
+  </si>
+  <si>
+    <t>Senior data analyst</t>
+  </si>
+  <si>
+    <t>Vgrowth Development Co., Ltd (Validus Vietnam)</t>
+  </si>
+  <si>
+    <t>Executed risk-based audit procedures following EY methodology to verify financial statement accuracy;</t>
+  </si>
+  <si>
+    <t>Supported senior management in financial statement preparation and issuance.</t>
+  </si>
+  <si>
+    <t>Partnered with Production teams to ensure data accuracy and generate efficiency reports for Vietnam factories;</t>
+  </si>
+  <si>
+    <t>Conducted comprehensive portfolio quality analyses and risk management reporting, delivering actionable recommendations for product policy and risk control;</t>
+  </si>
+  <si>
+    <t>Managed data curation and reporting workflows for critical daily/monthly deliverables while contributing to enterprise data projects.</t>
+  </si>
+  <si>
+    <t>Led end-to-end credit analytics initiatives covering underwriting, portfolio management, and collections, resulting in optimized credit policies and risk controls;</t>
+  </si>
+  <si>
+    <t>Developed and implemented an application scorecard for MSME/Household lending products, collaborating closely with CRO/CDO throughout the model lifecycle;</t>
+  </si>
+  <si>
+    <t>Streamlined cross-functional processes by delivering data solutions to Sales, Underwriting, Collection, and Operations teams, providing data solutions for enhancing automation and efficiency.</t>
+  </si>
+  <si>
     <t>d</t>
   </si>
   <si>
-    <t>Assurance Associate</t>
-  </si>
-  <si>
-    <t>Ernst &amp; Young Vietnam Ltd</t>
-  </si>
-  <si>
-    <t>Audit</t>
-  </si>
-  <si>
-    <t>Worked with clients in various industries, including private and public sectors;</t>
-  </si>
-  <si>
-    <t>Applied risk-based approach, evaluated control environment from the critical understanding of the business process, defined possibility of accounting material misstatements;</t>
-  </si>
-  <si>
-    <t>Dedicated reporting with actionable insights in business cases, Covid-19 cost control, UAT in system implementation, &amp; other ad-hoc tasks.</t>
-  </si>
-  <si>
-    <t>Conducted portfolio quality analysis, product risk management report, and other ad-hoc reports to support the manager in carrying out actionable recommendations regarding product policy, risk control,  campaign efficiency, and account management;</t>
-  </si>
-  <si>
-    <t>Handed in data curation, wrangling, and reporting to maintain daily/monthly deliverables (PQA, early warning, KRIs report);</t>
-  </si>
-  <si>
-    <t>Participated in company's digital transformations projects, monitored UAT for new applications, assisted others dept. on daily operations.</t>
-  </si>
-  <si>
-    <t>Responsible for partnering with Production, audited and ensured the accuracy of production data, and delivered efficiency reports for factories in Vietnam;</t>
-  </si>
-  <si>
-    <t>Performed audit procedures under Ernst &amp; Young's methodology to ensure the truth and fairness of various sections in the financial statements.</t>
-  </si>
-  <si>
-    <t>Performed cost control in  the belt-tightening period due to the Covid pandemic, co-operated effectively with other functional departments for daily operation process.</t>
-  </si>
-  <si>
-    <t>Financial analyst</t>
+    <t>Managed monthly functional P&amp;L reporting and Direct Labor costing. Assisted management in cost control during the Covid-19 pandemic.</t>
+  </si>
+  <si>
+    <t>Managed data curation, warehousing, and reporting workflows to support operation and reporting system;</t>
   </si>
 </sst>
 </file>
@@ -594,10 +640,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -658,9 +707,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -698,7 +747,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -804,7 +853,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -946,7 +995,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -954,10 +1003,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="13.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9.140625" collapsed="1"/>
+    <col min="6" max="6" width="122.42578125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F7" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F7">
+      <sortCondition ref="A1:A7"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD790AE0-F2A6-4E51-8E5C-F3243C55832F}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1302,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1025,7 +1322,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1042,10 +1339,10 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1053,19 +1350,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1073,19 +1370,19 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1093,19 +1390,19 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1113,19 +1410,19 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1133,19 +1430,19 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1153,57 +1450,19 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD790AE0-F2A6-4E51-8E5C-F3243C55832F}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="112.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
